--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:C382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sub Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Data</t>
         </is>
       </c>
@@ -453,6 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>1A0X1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t xml:space="preserve">#1/10 Basic Boom Operator Course; maintained stellar 98% avg grade--earned Distinguished Graduate award </t>
         </is>
       </c>
@@ -465,6 +475,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>1A0X1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t xml:space="preserve">100K+ lbs fuel to 12 redeploying F-16s during critical overwater refueling--combat acft returned home safely  </t>
         </is>
       </c>
@@ -477,6 +492,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1A0X1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t xml:space="preserve">1st Class aviator--offloaded 110K lbs of fuel to 7 F-15 s; spt'd AOR Coronet; weapon sys's in combat theater </t>
         </is>
       </c>
@@ -489,6 +509,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>1A0X1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t xml:space="preserve">1st class job performance; created tracking sys/built 110 EPR/OPR folders; 100% accountability of sq reports </t>
         </is>
       </c>
@@ -501,6 +526,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>1A0X1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t xml:space="preserve">340 EARS "Boom/Aircrew/Mo" (#1 of 42); spt'd 50 combat msns-supported Sq ops w/98% effectiveness rate </t>
         </is>
       </c>
@@ -513,6 +543,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1A0X1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t xml:space="preserve">351 EARS NCO OTM; key to Wg Sched's OSS Tm OTY/led 5 morale events for 58 dply'd Amn--TSgt a must! </t>
         </is>
       </c>
@@ -525,6 +560,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>1A0X1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t xml:space="preserve">6 OSS NCO Professional Performer OTQ 4Q11; my guru in Wg scheduling for AMC level rqmts--TSgt ASAP </t>
         </is>
       </c>
@@ -537,6 +577,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1A0X1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t xml:space="preserve">618 AOC Holiday Party cmte mbr; dir POC for ticket sales--1st-class event prepared for 500-mbr org to enjoy </t>
         </is>
       </c>
@@ -549,6 +594,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1A0X1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t xml:space="preserve">91 ARS Amn Professional Performer OTQ; established example and work ethic crucial to Sq function and msn </t>
         </is>
       </c>
@@ -561,6 +611,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>1A0X1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t xml:space="preserve">Academic specialist; attended hazardous material, pallet building, and cargo course--ensured global readiness </t>
         </is>
       </c>
@@ -573,7 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accomplished a total of 29 credit hours towards CCAF degree--66% complete for Logistics and Aviation Ops </t>
+          <t>1A1X1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Systems expert on a C-130H aircraft overseeing a series of complex aircraft systems ensuring their proper operation </t>
         </is>
       </c>
     </row>
@@ -585,7 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accomplished rigorous upgrade crs ahead of 5 mbrs--instrumental in tng 4 successive pre-instructor candidates </t>
+          <t>1A1X1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Responsible for ensuring all normal checklists are completed, performs all emergency procedure checklists as needed </t>
         </is>
       </c>
     </row>
@@ -597,7 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ace technician &amp; dominating force; consistently exceeds the std--OG "Pro Perf/OTQ"; SSgt now, TSgt ASAP! </t>
+          <t>1A1X1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Troubleshooting, diagnosing issues that may develop during the preflight checks or during normal aviation operations  </t>
         </is>
       </c>
     </row>
@@ -609,7 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aced 120-hr formal C2 crs; expanded MAF plng/employment/execution knowledge--awd'd Distinguished Grad </t>
+          <t>1A1X1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Pilots primary representative for the completion of all forms, all maintenance, and the servicing of all aircraft systems</t>
         </is>
       </c>
     </row>
@@ -621,7 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aced cultural comm class; acquired 3 credit-hrs w/"A" average--on target for spring '16 Aviation Ops CCAF degree </t>
+          <t>1A1X1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>rformance Assessment</t>
         </is>
       </c>
     </row>
@@ -633,7 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Achieved conventional/OPLAN 8010 cert; mastered KC-135 msn in min time--rdy to execute CSAF #1 priority </t>
+          <t>1A1X1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Accomplished fifteen mishap free FCF's; nine mission capable C-130 aircraft delivered--depot mission accomplished</t>
         </is>
       </c>
     </row>
@@ -645,7 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Advanced ldr; able to take control &amp; perform at a superior level; upgrade to IB; future SNCO; promote ASAP!</t>
+          <t>1A1X1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Accomplished SharePoint Site Administration course--ensured timely CoP migration; work stoppage avoided </t>
         </is>
       </c>
     </row>
@@ -657,7 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Advised DARPA engr; provided insight/feedback on $6M multi-acft robot concept--potential to reduce aircrew rqmts </t>
+          <t>1A1X1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acft flt tech manual expert; 360 hr/20 day TDY, line-by-line integration of NATO/USAF flt pubs--saved $3M </t>
         </is>
       </c>
     </row>
@@ -669,7 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADVON team for runway closure; coord'd movement for 3 tnkrs--lauded by AMC/A7 as "best closure to date" </t>
+          <t>1A1X1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Action Ofcr Crs grad; gained in-depth staff rpt &amp; chain of cmd knowledge--eliminated 20% of office workload </t>
         </is>
       </c>
     </row>
@@ -681,627 +781,867 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">AF Ambassador; Coronet w/four German Tornados offloaded 78K lbs of fuel; US &amp; allied relations bolstered </t>
+          <t>1A1X1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Administered 15 simulator evaluations; 45 aircrew wartime capable--ready for immediate promotion to MSgt!</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Schedules/performs mx/repair/periodic inspections f/3 Improved Avionics Intermediate Stations (IAIS) worth $13M</t>
+          <t>1A2X1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Screens, manifests, &amp; transports passengers for airlift 
+</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Performs maintenance data documentation using Global Eye database/Integrated Maintenance Data System (IMDS)</t>
+          <t>1A2X1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Provides information control and coordination between aerial port sections and load teams 
+</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Manages/accomplishes training f/section's Security, Due In For Maintenance (DIFM) and flightline driving programs</t>
+          <t>1A2X1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Updates logistics management systems and disseminate information into mission schedule</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Troubleshoots/examines 33 Line Replaceable Units (LRU) in support of 3 Fighter Generation Squadrons/79 F-16 acft</t>
+          <t>1A2X1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>rformance Assessment</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>rformance Assessment</t>
+          <t>1A2X1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A3T DTS AO; approved 375+ travel orders/val'd $730K tng budget--fostered travel f/hi-pri tactics &amp; tng advisement 
+</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mentored two new team members; ensured timely enrollment in PME; 100% pass rate on end-of-course exam </t>
+          <t>1A2X1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actively enrolled in CCAF; CLEP'd three credit hours; on track for Applied Sciences degree--90% completed
+</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coordinated with Boeing personnel; replaced malfunctioning oscilloscope on test station; zero down time </t>
+          <t>1A2X1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AD'd 169K lb critical supplies to soldiers in contact w/enemy; sustained warfighting effort--Taliban shredded
+</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Outstanding leader! Supervised replacement of three motherboard in under six hrs; readied LRUs for OEF missions </t>
+          <t>1A2X1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Aid'd smuggling combative effort; resupplied JTF-B w/prsnl/12 tons ammo--bolster'd Panama border security rqmnts</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alerted to ultra high frequency radio fault; replaced circuit assy, 80% of job std--acft readied for next day sortie </t>
+          <t>1A2X1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alft'd 14 MRAP's to AOR; ensured continued ground operations--improved IED protection for coalition mbrs
+</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Troubleshot air data no-go indication; ID'd/replaced faulty connector; vital to 89.5% mission capable rate </t>
+          <t>1A2X1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alft'd Apache helo/4 armored SUVs/Secret Service personnel to Africa--ensured success of hi-vis POTUS msn
+</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Versatile team member; assisted comm/nav equipment troubleshoot, bad wire found/repaired-- &lt; two hours </t>
+          <t>1A3X1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC 1A4X1, Airborne Operations, was merged with AFSC 1A3X1, Airborne Mission Systems, in 2014
+</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Teamed w/CRF procured&gt;165 repairable assets, exp'd mx processed; 36hr turnaround time lauded by MXG CC </t>
-        </is>
-      </c>
+          <t>1A3X1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Expert Electronic Standards Section trainer--trained six technicians on section's most complex test equipment</t>
-        </is>
-      </c>
+          <t>1A3X1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">AIS tech expert; Awarded $5K for $2M AF wide savings for engineering/build of specialized station cable tester  </t>
-        </is>
-      </c>
+          <t>1A3X1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Asst'd Boeing engineers in bldg 1st Cannon AFB CV-22 avionics test stand; multiplied local test capability</t>
+          <t>1A3X1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ty Description</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bolster'd assy f/F16 tester; expedit'd setup f/tester/eqpts/svcd 24 LRUs/svd $361K--key'd 140 ANG 900 flt hrs/581 srts</t>
+          <t>1A3X1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flies as an Airborne Systems Engineer (ASE) 5; provides in-flight mx on USAF's only 17 RC-135 V/W $250M acft 
+</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Born leader; MXG supervisor for 123 EFS EUCOM 90 day deployment to Romania--Supervised 25 from 10 AFSC's  </t>
+          <t>1A3X1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Performs preflight &amp; post-flight inspection duties as ASE crewmember aboard RC-135 V/W RIVET JOINT (RJ) acft 
+</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Competent Pro Sup; Led directly to successful testing/repair of 783 LRUs--Saved AF &gt;$17.5M in depot repair costs</t>
+          <t>1A3X1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Configures RJ acft hardware &amp; software systems to meet mission rqmts in support of high priority national taskings</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Earned 21 credit hrs/Avionic Systems Technology CCAF Degree--set the bar for section's education standard</t>
+          <t>1A3X1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Determines optimum use and trblshooting of 26 radios &amp; 2 data links on board the $500M E-3 acft
+</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Established testing and repair priorities; enabled C-130, F-16 and HH-60 aircraft combat sorties at 5 FOB</t>
-        </is>
-      </c>
+          <t>1A3X1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>is AFSC, 3A0X1, Information Management, will transition to AFSC 3D0X1, Knowledge Operations Management, and AFSC 3D1X1, Client Systems</t>
+          <t>1A4X1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SC 1A4X1, Airborne Operations, was merged with AFSC 1A3X1, Airborne Mission Systems, in 2014</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manages IT services for 552 geo-dispersed personnel/16 sites directly supporting 84 test programs valued over $1.3T </t>
+          <t>1A4X1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">#1/3 ASTs; brilliant aircrew member/combat leader; Jul SQ Star Performer--ready for instructor or SST upg! </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coordinates local IT requests supporting 2-Star and staff; liaises between 377th base comm leaders and support center </t>
+          <t>1A4X1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100 percent tracking guaranteed flight safety of all coalition aircraft operating in small, congested "kill boxes" </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leads Client System Technicians servicing 2 local networks; manages troubleshooting support for all Ctr IT equipment </t>
+          <t>1A4X1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100% tracking for over 30 cbt msns; guaranteed flt safety of coalition acft--zero mishaps in six mo deployment </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Facilitates account/information protection standards by providing technical solutions and scheduled upgrade outages</t>
+          <t>1A4X1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aggressively pursuing duties; finished 100% continuation trng in AOR/ahead of peers--rdy experience upgrade </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leads 4-person CSS team; manages mil &amp; civ personnel admin, resource mgmt and organize 3A/3S AFSC trng </t>
+          <t>1A4X1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Augmented dply'd base post office; vol'd 12 hrs, sorted 100k lbs/7k packages--morale/welware to 2K jt prsnl </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oversees NIPR/SIPR Enterprise Info Mgmt (EIM) collaborative tools via sharepoint link for 550 sq personnel </t>
+          <t>1A4X1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Augmented Sq AST shortfall; integrated surveillance tactics/procedures--enabled 8 hrs on-station ISO OIR msn objs </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monitors/SAV-inspects record mgmt prgms for 18 seperate offices across 5 flights; validates records/file plans </t>
+          <t>1A4X1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Collected intel on 24 ATOIs; logged 500 acft flt characteristics--enhanced CENTCOM battlespace awareness </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Manages 38 CSS prgms:  MICT, UCC, recall rosters, EPRs, decorations, rations cards, in/out-processing rqmts</t>
+          <t>1A4X1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Collected intel on 38 acft of interest; logged 250 flt characteristics--honed CENTCOM battlespace awareness </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performs admin and personnel functions as directed by Commander; provides support to 552 mil/civ assigned </t>
+          <t>1A4X1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combat aviator; expertly flew 30 OIR msns/402 hrs/100% ID's &amp; ROE compliance--CFACC objectives met </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensures timely prepartion of all evals, decorations, recall rosters, and general correspondence as required </t>
+          <t>1A6X1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Performs Flight Attendant duties in selectively manned unit supporting White House and senior mil/civilian leaders
+</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Complies with and assists others with provisions of the FOIA and PA, records, publications, and content mgmt </t>
-        </is>
-      </c>
+          <t>1A6X1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Responsible for dissemination and distribution of official correspondence and mail; maintains accountability</t>
+          <t>1A6X1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Executes airlift for the VPOTUS, Cabinet, Congress and other national/foreign ldrs as directed by White House staff 
+</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RFORMANCE ASSESSMENT</t>
+          <t>1A6X1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plans and coordinates meal requirements; procures provisions &amp; special request items from gov t &amp; civilian resources 
+</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>21SW Amn/mo!  Id'd/staged 84 rcds for NARA destruction/0 errors...rdy for GO Exec Spt job--promote ASAP</t>
+          <t>1A6X1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organizes materials/money and human resources; completes U.S./international customs and agricultural requirements 
+</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">21SW Rcds Mgmt prgm mgr; gen'd 155-item AFRIMS chklst/asst'd 15 FARMs--boost'd pln approval rate 96% </t>
+          <t>1A6X1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Performs initial actions/emergency procedures/egress in response to abnormal operations/passenger medical distress</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Acted as liaison between HQ PACAF and HQ AETC--mediated disputes between Air Force personnel and HQ AETC</t>
+          <t>1A6X1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Performs instructor FA duties on special msn acft ISO PACAF, USFK, INDOPACOM, FEMA &amp; other hi-rank VIPs
+</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Admin Superstar!  Only 3A in group to receive the 142d Operations Group Chief coin for exemplary support  </t>
-        </is>
-      </c>
+          <t>1A6X1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Advised military members on formal training classes needed to progress--no lost advancement opportunity </t>
-        </is>
-      </c>
+          <t>1A6X1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMXS INTRO manager; mng'd 492 prsnl sponsor appointments/duty info updates--ensured program/data integrity </t>
+          <t>1A6X1</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>complishments</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oversees Patient Administration operations/manages 7 key administrative programs/vital to our 20k gunfighters benefit! 
-</t>
+          <t>1A7X1</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Instructed SATCOM radio class; identified aircraft/AOR limitations...enhanced systems knowledge of 15 prsnl</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Facilitates audits f/medical records/NOPP labels/NSTR's/clinical notes/weekly scans in accordance w/flight procedures 
-</t>
+          <t>1A7X1</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Deployed to Philippines; collected/donated clothes &amp; 20K pesos for 1.7K students...SQ/USAF image enhanced</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">STR prgm mgr; organizes monthly data QC's/mailouts/ensures MTF transfer documentation t/NPRC/VA f/ret/sep mbrs
-</t>
+          <t>1A7X1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Flew 73+ hrs/58 OEF msns ISO CFACC CSAR/MEDEVAC; credited with 37 US/Afghan assists/lives saved</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Monitores customer service functions; TRICARE briefings/front desk coverage/eligibility verification for all MTF pts</t>
+          <t>1A7X1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Flawlessly scheduled 375 flts/1,502 hrs/16 upgrades/2.2K RAP events...FHP on track despite six mo deployed</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Medical Readiness NCOIC; executes MAJCOM taskings/monthly MRC/trn'g ex; ensures medics are train'd/equip'd 
-</t>
+          <t>1A7X1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Deployed 60 personnel and nine tons of cargo to OEF and OIF; PR/MEDEVAC alert in 48 hrs...zero alert loss</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Single MTF UDM; postures 180 amn/2 Sq f/war/$644K WRM/2 equip &amp; 8 prsnl UTCs; counsels 3 CCs f/all dplymts 
-</t>
+          <t>1A7X1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Vital mbr in Ex BALIKATAN '10; flew 4xCSARTFs/35 flt hrs/nine msns...eight int'l svcs trnd in CSAR tactics</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">MCC NCOIC; mngs/directs 38 MCRP/CMRP tm chief; admin'd HHQ tasks; leads MTF response f/wg/MAJCOM Ex 
-</t>
+          <t>1A7X1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Mentored 12 Filipino AF crew chiefs; delivered CSAR brf, flawless jt tng ex--enhanced partner nation abilites</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TOPA Pt Admin NCOIC; HIPAA Mngr; MTF liaison w/Causality Affairs; Pt Travel ODTA; facilitates Wg Right Start</t>
+          <t>1A7X1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Lead gunner instructor; 110 flt/123 gnd tng hrs, 27 certs/upgraded, 29 current--increased gunner manning 100%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Admin support for 4 CCs/CCC/First Sergeant; serves as liaison for 412 MDG; provides real-time data critical to msn 
-</t>
+          <t>1A7X1</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Perfect mgmt of SQ wpns pgm; tracked/maint’d 240 personal wpns--100% accurate/accountable on $400K acct</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Assists 5 clinical providers/2 specialists/3 nurses; coordinates patient support functions w/assigned PCM team 
-</t>
+          <t>1A7X1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Key in smarter FHP mgmt; 15% reduction in lost formation tng hrs--impv'd aircrew tng w/104 flt hrs saved/FY</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Assists GPM with managing provider templates; oversees appts in the Composite Health Care System (CHCS) 
+          <t>1A8X1</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Provides NRT sensitive intel, indications and warnings to USPACOM AOR assets/IC prgm mngrs/natl'l leadership
 </t>
         </is>
       </c>
@@ -1309,37 +1649,47 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Assists with annual med rec retirement/active duty inventory &amp; Notice of Privacy Practice (NOPP) procedures</t>
-        </is>
-      </c>
+          <t>1A8X1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Co-leads Pt Travel DTS procedures/reimbursements; guarantees completion of orders/vouchers &amp; aligns with LOAs 
-</t>
+          <t>1A8X1</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>rformance Assessment</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Conducts weekly TRICARE briefings for base newcomers, Smooth Move and Transitition Assistance prgms 
+          <t>1A8X1</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Analyzed 2,000 hrs of enemy transmissions--id'd adversary's defense capabilities, reduced enemy operations
 </t>
         </is>
       </c>
@@ -1347,12 +1697,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coordinates health services management activities; end-of-day, check-in, quality control &amp; eligibility for care 
+          <t>1A8X1</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Authored 140 national intelligence reports--delivered key information to the Vice President of the United States
 </t>
         </is>
       </c>
@@ -1360,24 +1715,35 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Counsels patients &amp; host nation providers on rights and responsibilities regarding overseas TRICARE prgms</t>
+          <t>1A8X1</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Authored updates to the TAC MQT curriculum; kept pace with evolving TTPs; trained &amp; qualified 23 analysts 
+</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Creates, maintains &amp; retires medical records; coordinates referrals/audits third party collections when required 
+          <t>1A8X1</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certified as flight's 1st qualified AOR operator; increased number of qualified, deployable linguists by 25%
 </t>
         </is>
       </c>
@@ -1385,12 +1751,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Creates/maintains/retires medical records; coordinates/fulfills/speardheads sequestration of records as needed 
+          <t>1A8X1</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contributed to the effectiveness of the Pashto Cryptologic Skills Program &amp; the Command Language Program
 </t>
         </is>
       </c>
@@ -1398,12 +1769,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directs record rm ops; supervises 1 AD; mngs 7.1K charts, spts 3 clinics, ensures records availability for 9 providers 
+          <t>1A8X1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delivered intel that resulted in discovery of extremists' covert missile shipments--prevented entry into war zone
 </t>
         </is>
       </c>
@@ -1411,264 +1787,382 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>4XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ensures availability of medical documentation for appointment, fills internal/external record requests in CHCS</t>
+          <t>1A8X1</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deployed twice to Afghanistan for 145 days--provided vital language support for Operation Freedom Sentinel
+</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>#1 of 4 solid-gold NCOs; tremendous results, no challenge too tough; region's SNCO of 3d Qtr; promote ASAP</t>
+          <t>1B4X1</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Analyzed xx detection network; executed 30 TTs/searched for IOCs--bolstered security f/$26.2B msl def network</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>600+ mbr AFSA chapter VP; 1st yr improved recruiting/retention 50%...elected division military affairs trustee</t>
+          <t>1B4X1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Audited $12M cyber wpn sys; exposed 15 deficiencies w/CVA/H version update--revamped PMO delivery for 3 CPTs</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Absolute superstar! Brilliantly aided 350+ clients in 6 courts-martial/82 Art 15s/36 LORs/23 admn discharges</t>
+          <t>1B4X1</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Conscientious NCO;designed 4 Standard Operating Procedures for CFP--increased security compliance of workcenter</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Academic achiever...earned CCAF degree in paralegal studies -- applied knowlege to job/elevated credibility</t>
+          <t>1B4X1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coord'd 86 AW C4 restoral; focused 13 person mx across 6 orgs--restored services to Ramstein AB &amp; COMUSAFE    </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Academic superstar!  Excelled at 5-week long 7-level Paralegal Craftsman Course...garnered 90% test average</t>
+          <t>1B4X1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diligently completed 90+ required 1B4 CBT's upon demand--ensured 1B4 School mission readiness within 3 months </t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aced 10-day E-8 Paralegal Mgr backfill; directed work flow f/3 Divs/257 psnl/38 GSUs--seamless ops/spt to O-6 Dir  </t>
+          <t>1B4X1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exceptional computation skills; qualified Electronic Data Processing Test w/ 70% passing score--instrumental to 102d </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Acquired space/relocated defense ofc w/in 1 mo after short notification to move...seamless transition/no delays</t>
+          <t>1B4X1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Executed 235 hunt TTs; cleared 4K hosts/id'd 315 problems/secured $2B NC3 ntwrk--tm coined/earned J3 qtrly Awd</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Actualized dschrg prgm fix; secured travel funds f/ SME to teach ofc best practices--incrs'd on-time rate 55% in &lt;3 mos </t>
+          <t>1B4X1</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">First Rate Manager--established and executed CSL training/25 personnel competent performing required duties </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">AFSOC O-6 pick f/week-long trng roadshow; ID'd 17 prgm errors/developed solutions--improved ofc efficiency 35%  </t>
+          <t>1B4X1</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Instrumental in site-survey phase; aided 40+ hrs in-person/remote interviews--ensured USSTRATCOM msn plan suc</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Aided transfer of Lt Col sex assault case during 3 time ADC re-assignment -- organization skills praised by all</t>
+          <t>1B4X1</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAJCOM ASI manager; de-conflicted ### service interruptions to 103 sites--pivotal to MAJCOM 99% C4I uptime </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Amazing interpersonal skills; recognized suicidal client after duty hours...ensured client rec'd needed treatment</t>
+          <t>1C0X2</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maintains unit's Aviation Resource Management System (ARMS)/compiles, records &amp; audits aircrew msn data 
+</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Amazing versatility; coordinated 11 interviews in 1 day w/ 2 visiting attys -- maintained uninterrupted services</t>
+          <t>1C0X2</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assigns and updates aircrew training profiles and training levels; monitors aircrew individual flt requirements
+</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Articulate; briefed 120+ FTAC Amn on ADC/constitutional rights; all mbrs aware of rights &amp; defense services</t>
+          <t>1C0X2</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Interprets aviation policies, instruction and law for 1C0X2 functions; reviews mgmt procedures/recommends changes</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Assembled winning 250+ pg clemency package; mbr convicted in General Court-Martial; confinement halved! </t>
+          <t>1C0X2</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inputs &amp; audits aircrew Mission Accomplish Reports (MARS) &amp; aircrew flight times (781s) into the ARMS database 
+</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Assembled winning response pkg; client offered Art 15 for drug use/possession...mbr retained &amp; career saved!</t>
+          <t>1C0X2</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prepares Flight Authorizations (FA) &amp; go/no-go functions for WYANG C-130s air &amp; Aeromedical Evacuation crews 
+</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Assertive w/ incredible mission focus; vital to achieving 96% Art 15 atty consult rate...exceeded AF 90% goal</t>
+          <t>1C0X2</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Researches, validates, &amp; interprets Air Force Instruction, Mission Design Series specific medical/physiological rqmts</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Astute DUI crime scene observations revealed crucial errors in key eyewitness testimony; client fully acquitted</t>
+          <t>1C0X2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reconciles/Post-Missions; Mission Accomplish Reports (MARS) &amp; aircrew flight times (781s) daily w/ADOs &amp; DO
+</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Attended Professional Amn's Conf; passed on perspective of CSAF/CMSAF/other Sr ldrs to 470+ AFSA mbrs</t>
+          <t>1C0X2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interprets public laws and plans, providing Aviation Resource Management support per squadron command directive
+</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Authored brilliant response in TSgt AWOL case; turned-down Art 15 became reprimand...saved 18 year career</t>
+          <t>1C0X2</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initiates actions to support flight management policy &amp; procedures; monitors, collects, updates &amp; audits ARMS
+</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>5XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Authored qrtly SOD briefs; versed Sr. Ldrs on 43 cases/UCMJ trends--promoted discipline standardization across wg </t>
+          <t>1C0X2</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Maintains 1,428 Flight Record Folders for Remotely Piloted Aircraft pilots/sensor operators aviation service w/AFIs</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">#1 of 16 troops...Recognized as "AMN of the Qtr" for OO-ALC/PKO's 2nd Qtr--dedication is second to none
+          <t>1C1X1</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aided upgrade of Nellis STARS capes; assisted w/ ops test f/ $31M project--fac awd'd afld ACC Ops complex OTY
 </t>
         </is>
       </c>
@@ -1676,12 +2170,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">$8.6M PDM SS mbr; authored multiple planning WCD's--ens'd five acft spt &amp; Hill's Maint Depot rpr's 100%    
+          <t>1C1X1</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AOR RAPCON ctlr; maintained ATC continuity f/2 aflds/11 flying sqs/4 jt nation/126K sq mi aspc--achv'd ACoL init!
 </t>
         </is>
       </c>
@@ -1689,24 +2188,35 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>14 mbr tm/AF's only combt spt Wg; amp'd 37 workcenters/resolv'd 17 msn stoppages--spt'd QoL f/8K jt mbrs/4 cmds</t>
+          <t>1C1X1</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assisted in rewrite of twr OI/coord letter; 25hrs/43+ items ID d for chg/removal--improved twr effectiveness
+</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aced Defense Language Proficiency Test for Chinese, attained AF linguistic proficiency level--inc'd AF assets
+          <t>1C1X1</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assisted w/Wg flying reg rewrite; sought resolution f/5 deficient areas--ensured AFI/DoD/FAA directive compliance
 </t>
         </is>
       </c>
@@ -1714,12 +2224,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aced intense CON170 Cost/Price Analysis course--DAU states avg grad saves AF $600k+ throughout a career 
+          <t>1C1X1</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Audited Afld Ops Instruction; pinpointed/rectified 100 errors--ensured 100% compliant w/AFCENT/AFI/ICAO regs
 </t>
         </is>
       </c>
@@ -1727,12 +2242,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administered Cope Retreat contract--improved family morale--crucial to maintain Air Force family structure
+          <t>1C1X1</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Authored ATC training exam; researched monthly controller training--23 controllers qualified on current ops 
 </t>
         </is>
       </c>
@@ -1740,24 +2260,34 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Advanced Contract Mgt CCAF deg; dominated 7-level upgrade/ 1 undergrad crs--logged 3 credit hrs/4.0 GPA </t>
+          <t>1C1X1</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Authored lcl OJT syllabus; aligned instructor/student interface for 5 mbrs--reduced 5-lvl tng timeline by 2 mos </t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Air Show point-man; contracted 14 aerial demonstrations/$100K--showcased AF capabilities for 75K visitors
+          <t>1C1X1</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Co-authored facility strip marking procedures and streamlined requirments--improved/simplified traffic flow
 </t>
         </is>
       </c>
@@ -1765,12 +2295,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Authored $9Mil Acquisition Plan for Roofing kt; chosen ahead of peers to draft--zero gap in CEG roof support
+          <t>1C1X1</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Co-authored MOA with 2 FAA facilities; defined point-out procedure/acft routing--updated 4 yr old instruction 
 </t>
         </is>
       </c>
@@ -1778,12 +2313,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Authored A &amp; E continuity book; provided guidance to five new buyers--enhanced branch capabilities by 30%
+          <t>1C1X1</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combined 12 U.S. and Royal Bahraini missions--bolstered Arabian Gulf relations, enabled Afghan surge ops
 </t>
         </is>
       </c>
@@ -1791,88 +2331,113 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Averted Hill HAZMAT supply shortage; awd kt w/n 12 hrs/items rcvd w/n 72 hrs--Hill AFI/OSHA compliant </t>
+          <t>1C3X1</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Responsible for receiving, validating &amp; disseminating CJCS/USSTRATCOM emergency action msgs
+</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Awarded $1.25M in feeder/AC unit contracts--enhanced climate controls/electrical systems for two squadrons
-</t>
-        </is>
-      </c>
+          <t>1C3X1</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Awarded $249K in MWR projects; new bus shelters/renovated softball dugouts--QoL impvd for 9K personnel
-</t>
-        </is>
-      </c>
+          <t>1C3X1</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Awarded $52K RASS kt--provided reliability--ensured untinterrupted aircraft flying in support of US interests
-</t>
+          <t>1C3X1</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>complishments</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Awarded 4 quick-turn contracts/11 option mods; resolved exp'd-use GPC prog error--guarante'd execution of &gt;$2.5M</t>
+          <t>1C3X1</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1CP ready!  Streamlined 75 QRCs/36 CBCs; met dual MAJCOM requirements--blended tenant/host capabities 
+</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Awarded 5 F22/F35 facility kts valued at $1.6M; constructed labs/secure rms/fuel bays for msn critical aircraft
-</t>
+          <t>1C3X1</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>350 EAMs validated/authenticated; ensured direct NC2 for U.S. Nat'l Security Strategy--enforced deterrence</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Awarded 8 HVAC systems valued at $1.8M; replaced deteriorating/broken systems--negotiated, saved $597K 
+          <t>1C3X1</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Authored CMD CTR SOP; stndrzd responsibilities/eliminated confusion--provided much needed ref guide for prsnl 
 </t>
         </is>
       </c>
@@ -1880,829 +2445,1176 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Awarded airfield surveillance cameras maint plan; boosted AT/FP conditions/$792M in base resources secure
-</t>
+          <t>1C3X1</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Authored COCOM level training instruction; developed standardized plans for 8 units--slashed certification time 42% </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Awarded five F22/F35 facility kts valued at $1.6M; enabled depot expansion support for msn critical airframe</t>
+          <t>1C3X1</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Behind the scene workhorse for largest PL-1 move in 15 yrs; sync'd 34 DoD agency products--near perfect execution
+</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Awarded medical lab testing kt for MDG, 5 yrs/$396K; results returned within 48 hrs; contributed fit-to-fight
-</t>
+          <t>1C3X1</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brilliant SORTS mgmnt; 100% accountability 12 units, tnd 36 prsnl &amp; 46 CC/AO's--Hq benchmarked process </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>7XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supported det w/6 VIC interviews/2 interrogations/7 leads--100% confession/exceeded cmd timeliness stds </t>
+          <t>1C4X1</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 SOW Obstacle Crse PM; facilitated tech trng for 100+ stdnts/spec ops/law enforcement--zero safety mishaps </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>7XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coord'd surveillance op at HRU; ID'd tgt add'l misconduct/potential accomplices--fdbk initiated pre-trial rec </t>
+          <t>1C4X1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acted as radio op; swift actions resulted in return of 5 civilian lives and twenty five medevac missions </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>7XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Positively ID'd subject f/ICAC op; enabled UCA to establish contact/evidence collection--facing 10 years jail </t>
+          <t>1C4X1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AF Basic Combatives Instructor; eased shortage of qualed instrs--helped avoid student training deficiencies </t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>7XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Source ops guru; ID'd 2 CS/facilitated recruitment/focused on tgt &lt;72 hrs--evidence collected/furthered inv </t>
+          <t>1C4X1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahead of his peers in seven level upgrade training: 60% of prerequisites complete--role model to counterparts </t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>7XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mng'd complex death scene; led 12 agents, seized 14 pcs evidence--sr ldrs informed/provided closure f/family </t>
+          <t>1C4X1</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aided in DIV EX Iron Focus 16.2; provided ASOC w/comm/link caps for CAS ops--8 sorties supt'd/3 JTACs trained </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>7XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve">ID'd $5M fraud scheme; seized altered docs/CS obtained CEO admission--contract terminated w/zero DoD loss </t>
+          <t>1C4X1</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alert! During VIP live bombing exercise, declared immediate ceasefire, saved 11 personnel in impact area </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>7XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Navigated complex jt AF resp in &gt;450 mil mbr ID breach; coord'd w/ICON processed 225 leads--ID'd sys leak </t>
+          <t>1C4X1</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambassador in Blue; collected 85 bags/1 ton debris during squadron Adopt-a-Highway event--beautified community </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>7XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Leveraged CS f/AD tgt; ID'd &gt;12K fraud, gang affiliation, drug/wpn on base--good order &amp; discipline restored</t>
+          <t>1C4X1</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arranged collection/transportation of $12K of unit turn-in items to base management; essential to unit closure  </t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>7XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guided recovery ops of 2K A-10 parts/$3M; expedited aircraft investigation--DOD completed critical safety inquiries </t>
+          <t>1C4X1</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Assisted 10+ JTACs w/five training TDYs; aided control of 50+ hrs of CAS--maintained 25 annual currencies</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>7XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performed NIK narcotics test for 2 drug investigations; established apprehension probable cause--lauded by S2  </t>
+          <t>1C4X1</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Assisted Flight's equipment inventory appraised at $2.9 mil-- 20 Airmen equipped for OEF deployment</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>7XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Assisted LMR implementation; programmed 50 LMRs--increased Office of Special Investigation C2 capability</t>
+          <t>1C5X1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instructor WD; incorporates joint and inter-agency assets to enhance unit training; one of primary flight training NCOs
+</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> contributions received...</t>
-        </is>
-      </c>
+          <t>1C5X1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>imary &amp; Additional Duties</t>
+          <t>1C5X1</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Directly controls flying operations for 53 F-15, 15 KC-135, 10 HH-60, 2 E-3B, 1 RC-135 &amp; transient/air evac aircraft
+</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ne</t>
+          <t>1C5X1</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Senior air defense enlisted leader; supervises admin/duties/training/functions of all enlisted team mbrs in the section </t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Responsible for health/morale/welfare/discipline of 5,000+ Basic Military Training (BMT) recruits annually</t>
+          <t>1C5X1</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leads 5 NCOs/Amn; directs surveillance, ID, and datalink functions; ensures optimum display/quality of air picture 
+</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Provides AF CCs w/combat-ready Airmen; mentors, leads and instructs recruits on foundational military skills</t>
+          <t>1C5X1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensures detection, initiation, tracking and maintenance of all airborne objects within assigned area of responsibility 
+</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Instructs individual/ceremonial drill, dormitory maintenance, war skills development/military academic studies</t>
+          <t>1C5X1</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coordinates with external agencies, sister services, and allied nations to deconflict airspace tracking responsibilities 
+</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Charge of Quarters NCO during off-duty hours for 800+ recruits; responsible for $101M in dormitory resources</t>
+          <t>1C5X1</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Maintains Combat Mission Ready qual/status as AST; deploys worldwide ISO CCMD directed contingency taskings</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Directly supervises, leads &amp; evaluates 400+ trainees on fundamental skills necessary for entry into military svc</t>
+          <t>1C5X1</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Builds/disseminates theater air battle plans (ABP) using Theater Battle Management Core System (TBMCS) 
+</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Counsels trainees and maintains trng documentation on strengths/adaptability; responsible for 14K+ trng items</t>
+          <t>1C5X1</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coordinates with 5 internal divisions; prepares/provides ATO msn data, enhances situational awareness (SA) 
+</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Inculcates discipline, pride, teamwork &amp; AF Core Values in all phases of trng to prepare warrior Amn for duty</t>
+          <t>1C6X1</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Second-in-command of 32-member work force; directs 24/7 ops for mnx, comm, computer, CE, &amp; security centers </t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Manages dormitory &amp; resources worth $1M+; responsible to CC for oversight of up to 1,200 assigned Airmen</t>
+          <t>1C6X1</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Operates $250M phased-array radar wpn system; directs mission critical operations in absence of crew commander </t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>1C6X1</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Provides critical SSA to JFCC-Space &amp; USSTRATCOM--executes flawless missile warning &amp; space surveillance </t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Instructs War Skills/Military Studies (WSMS) to 39K basic military trainees annually--qualified on 39 subjects</t>
+          <t>1C6X1</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Collects crucial Space Object Identification data on high-priority satellites for the Nat'l Air &amp; Space Intelligence Ctr</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Instructs trainees on military fundamentals essential to inculcate discipline, pride, teamwork and core values</t>
+          <t>1C6X1</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Best RSSC! Successfully completed/maintained highest rating f/testing MILSATCOM ops f/consecutive month</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Assists trng of new instrs; manages daily instructional delivery/use of sophisticated multi-media training aids</t>
+          <t>1C6X1</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Conduct'd 15 hrs of GPS III ESA validation; safeguarded $500M SV--assured future $11B GPS constellation success</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Identifies/proposes curriculum &amp; flash presentation changes for &gt;1.3K teaching aides to enrich comprehension</t>
+          <t>1C6X1</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Accomplished 462 SV special activities; configured bus system/collected analysis data--GPS constellation optimized</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ast</t>
+          <t>1C6X1</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Assisted w/tng record review; 800 records filtered/digitally organized--aided sq's 2017 "Highly Effective" insp rating</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Responsible for training 39K AF trainees each year at Basic Expeditionary Airman Skills Training (BEAST)</t>
+          <t>1C6X1</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Attended "Lunch and Learn" seminar; acquired 4 hrs of mentorship tng--increased professional &amp; leadership abilities</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ensures all trainees receive practical application in combat survivability related principles and basic LOAC</t>
+          <t>1C6X1</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Author'd GO/FO TBMW codeword proc; expedit'd vital missile info to USFJ/5AF CC--reduc'd notification time 20% </t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>8XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Coordinates SABC, Integrated Defense, Post Attack Response, Chemical Attack and final evaluation exercises</t>
+          <t>1C7X1</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Establishes multi flt plans f/14 B2s; ensures multi-nation safety/routes of travel, safeguards $28B assets  
+</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> contributions received.</t>
+          <t>1C7X1</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Focal point f/afld ops; provides safe/efficient/effective 1.76M sq ft afld; secures B2 rapid mobility dplymnt  
+</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Shaped largest evacuation in history, operated 1 of 8 $1B JTFs--utilized by 125,000 pers supporting the evacuation</t>
+          <t>1C7X1</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dispatcher f/IFE resps; coord's emer info w/4 agencies/28 notifications--$28B f/acft/debris secured  
+</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Stewarded $30 million, 2.3 million sq ft village ISO SECDEF's primary directive--integrated support f/5K refugees</t>
+          <t>1C7X1</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Orchestrates afld snow removal ops; minimizes impact to B2 ops/alert AC--establishes 3/4 8th AF priorities</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Village safety ambassador; provided static/roving security/guidance for 5K refugees--support'd HAFB/DoS initiatives</t>
+          <t>1C7X1</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manages airfield ops; coordinates w/aircrews, air traffic control and other base agencies to ensure safe aircraft ops
+</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Fueled 726 patrols; provided security f/5K refugees/62 Airmen/993 contractors/8 NGOs--lauded #1 of 8 TFs for safety</t>
+          <t>1C7X1</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conducts airport inspections/assesses conditions of runways, taxiways, aprons &amp; afld lighting sys on 70.6M sq/ft afld
+</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Manned donation center; dist'd clothing/hygiene/infant needs--aided NGOs w/distro of 3320 units/700 guests daily</t>
+          <t>1C7X1</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inspects afld for hazards affecting msn capabilities; coordinates w/CE/r for correction; ensures DOD msn sustainment 
+</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AAFES security detail; secured 536 guests/$13K daily sales/12 civilian workers--fostered safe shopping environment</t>
+          <t>1C7X1</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Tracks mil/civ flight movements; coordinates aircrew/field support w/14 base agencies; focal point for all airfield ops</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DFAC expediter; resolved conflicts/maintained order/assisted elderly--provided 915K halal meals f/5K daily patrons</t>
+          <t>1C7X1</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Advises sr ldrs on matters affecting 10.9M sq ft afld/flying ops; dvlps parking plans f/mil acft--5K+ takeoffs/landing 
+</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Facilitated path f/citizenship; escorted/line control'd 5K refugees to DoS out-process center--maintained order</t>
+          <t>1C7X1</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plans/schedules/directs multi-million dollar afld upgrade/construction projects; establishes future infrastructure rqmts 
+</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isolated U-2 rcv link fault; installed omni-directional antenna/re-est auto acquire cape--facilitated 42 flt hrs/1K trgts </t>
+          <t>1C8X1</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SC 1C8X1, Ground Radar Systems, and 1C8X2, Airfield Systems, merged to become 1C8X3, Radar, Airfield, and Weather Systems (RAWS)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Led 5-mbr team joint tactical terminal radio/pwr supply u/g; enabled prime IFF link--spt'd 140 analysts/1.3K msns  </t>
+          <t>1C8X1</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Air Force rep; marched in local 9/11 memorial 10th anniversary ceremony--fostered base/community relations 
+</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amended two supply accts; inspected/builtup 80 items/$8.5M--equiped 2 ACC UTC assets for deployment in &lt;1 mo </t>
+          <t>1C8X1</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attained Journeyman skill level!  Trained/completed 800+ core tasks--increased technician availability 10% 
+</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hand selected for Quality Assurance staff; fully qual'd in one week--challenge/increase responsibility--promote now! </t>
+          <t>1C8X1</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attended DASR training course; finished class w/90% average--shared knowledge/boosted task coverage 33% 
+</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Engineered remote radio station; elim'd 50 sq/mi-10 y/o RF deadzone--lauded 56 FW Information Dominance award </t>
+          <t>1C8X1</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Authored/facilitated lock-out procedure; protected top AF priority--passed safety inspection w/zero write ups</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Conducted Unit MICT eval; val'd 43 checklists/identified 430 deficiencies from 2793 inspection items--Sq CUI ready </t>
+          <t>1C8X1</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Brilliant manager; guaranteed 1.2K PMIs completed and reported on time--exceeded ACC uptime standard 2%</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Group VCO; performed preventative maintenance/cleanings/inspections for 10 vehicles--achieved zero mx down time</t>
+          <t>1C8X1</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Completed climbing certifiers course; qualified 20 Amn--provided invaluable tower climbing/life-saving skills 
+</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revamped UTC LOGDET; inventoried 179K lbs/$7M of assets--armed CCDRs w/warfighting capabilities in &lt;72 hrs  </t>
+          <t>1C8X1</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coord'd FAA tech assist visit; upgraded two ASR modifications--improved capes w/new net remote options 
+</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performed depot level component repair of $285K ISR node, isolated wiring faults--enabled downlink/75 U-2 sorties </t>
+          <t>1C8X1</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coordinated depot spt/acquired part; bolstered AFRICOM warfighter; secured 228K sq mi of acft surveillance 
+</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directed 138 PMIs/15 un-scheduled mx actions; contributed to DGS-2's 99.8% avail rate--garnered Unit team award </t>
+          <t>1C8X1</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coordinated FAA tech assistance visit; repaired damaged antenna polarizer--saved $81K in replacement parts 
+</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>9XXXX</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vol'd Voting Assistance Officer; aided 1.2K voters, trained Amn/Civ during POTUS election--fulfilled SecDef prgm </t>
+          <t>1C8X2</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>SC 1C8X1, Ground Radar Systems, and 1C8X2, Airfield Systems, merged to become 1C8X3, Radar, Airfield, and Weather Systems (RAWS)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve">AADD advocate/four weekends; key dispatcher/18 hrs served as designated driver--zero DUIs/led to eight wg saves
-</t>
+          <t>1C8X2</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>SC 1C8X2, Airfield Systems, was previously known as AFSC 3D1X6, Airfield Systems</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Active AADD mbr; briefed 42 FTAC Amn on designated driver program; educated Amn to keep streets safe 
-</t>
+          <t>1C8X2</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aced 40-hr SEJPME; applied knowledge/mentored 5 Airmen on JOPES/DCAPES--prepared for advanced ldrshp roles </t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Active AADD member; volunteered 75-hrs during 08'/09'--directly helped minimize DUI's for Aviano's 31FW
-</t>
+          <t>1C8X2</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Airman of the Qtr, 125th Operations Group, Airman of the Qtr, 125th Fighter Wing; continue to challenge</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Active member of AADD program; transported two prsnl back to residence--prevented DUIs &amp; saved careers 
-</t>
+          <t>1C8X2</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Assembled 23 Radar Approach Control operator positions at Sheppard Air Force Base--expanded safety and ops</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Advocate for "Don't Drink &amp; Drive" pgm...vol'd 9 hrs/reached 3.7K Amn--zero DUI's over 2 holiday weekends
-</t>
+          <t>1C8X2</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>ATCALS team chief; spt'd 1st USAFE B-52 msn in 11 yrs--fortified EUCOM theater bomber deterrence prgm</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Armed Forces Against Drunk Driving volunteer--16 hours; ensured Airmen transported home--saved 35 lives! 
-</t>
+          <t>1C8X2</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ATCALS tm chief for world's largest mil airshow; spt'd 26 nations/224 acft--3 British Royalties/48 Air Chiefs </t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avid AADD supporter; vol'd four weekends &amp; drove 12 Airman home--contributed to 456 total saves this year 
-</t>
+          <t>1C8X2</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Committed to education, completed Associate of Applied Science in Airfield Management, pursuing post-grad ed</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avid supporter for AADD Program; volunteered four weekends--contributed to 418 saves/ensured zero DUIs
-</t>
+          <t>1C8X2</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Completed 5-level volumes ahead of schedule; new to 125th Ops Spt flt, ambition fueled continuous improvement</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Avid supporter of AADD prgm; provided safe transportation for nine Amn--bestowed true wingman concept</t>
+          <t>1C8X2</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Contributed to the functionality, supportability and installation of the 259th ATC LAN Network equipment</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Committed 16 hours to Operation SAFE RIDE; aided 12 in need/avoided police blotter--46 total saves, Mar 11
-</t>
+          <t>1C8X3</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Documents ancillary trng, man-hrs, supply requisitions &amp; mx actions in the Integrated Maintenance Data System </t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Committed to safety; volunteered as MPOY designated driver; fielded two calls--secured trans for six Amn
-</t>
+          <t>1C8X3</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>rformance Assessment</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Complete wingman at squadron picnic; volunteered for AADD--provided safe transportation for three Airman
-</t>
+          <t>1C8X3</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17 prsnl/2 AFSCs; mngd 72 afld/nav sys/cmpltd 203 mx actions/resolved 17 outages--enabled 10K mil/civ flts </t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Coord'd dispatch ops f/AADD; 396 hrs/33 shifts filled--prevented 24 potential fatalities--lives/careers saved</t>
+          <t>1C8X3</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Accepted rwy 34 weather sys; provided QA f/ install of $1.4M project--eliminat'd potential cause of two acft mishaps 
+</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dedicated 16 hrs to base-wide Amn Against Drunk Driving Pgm; 25 lives rescued--appointed as unit pgm lead 
+          <t>1C8X3</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aced 120-hr radar crse; eliminated critical NAVAID trng deficiency--increased system task coverage by 15% 
 </t>
         </is>
       </c>
@@ -2710,12 +3622,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dedicated 32 hrs to AADD; assured safety/security of 8 Amn--supported Wg CC's priority and potentially saved lives
+          <t>1C8X3</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aced Microsoft PowerPoint crse; created HAZMAT trng/exam--trained 17 Amn/enabled mx on $23M+ eqpmt 
 </t>
         </is>
       </c>
@@ -2723,25 +3640,34 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dedicated wingman; volunteered 13 hrs to Sober Ride--reduced DUI rate/ensured safety of 23 WG personnel
-</t>
+          <t>1C8X3</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Advanced JBER infrastructure; augmented E&amp;I team/installed 34 antennas--improved ATC C2 f/ 119 pilots/$10B acft </t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dedicated XX hrs to AADD pgm; ensured sfty of XXX Amn at Sq Holiday event--awd'd LOA/commended by Gp CC
+          <t>1C8X3</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AF/FAA 1st!  Analyzed DASR noise floor; est'd suppression zones--elim'd false acft returns/11K sq mi rdr vis 
 </t>
         </is>
       </c>
@@ -2749,12 +3675,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Designated driver for AADD program; donated 120 off-duty hours/vehicle--safe transportation for personnel
+          <t>1C8X3</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Answered call for help; provided DASR calibration set to Ellsworth AFB--elim'd 35K sq mi airspace closure 
 </t>
         </is>
       </c>
@@ -2762,12 +3693,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Designated driver for Combat Dining In; escorted 12 individuals--ensured Airmen/NCO's safe transportation
+          <t>1C8X3</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assisted afld radar reallocation tm; prcs'd 134 parts--refurbished $1M sys/saved AF $180K iso CJTF-HOA 
 </t>
         </is>
       </c>
@@ -2775,13 +3711,3279 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>1XXXX</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Designated driver for MXS Christmas party; provided safe transportation after event--140+ DUI free attendees
-</t>
+          <t>1D7XX</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organizes unit UGT; advises &amp; assists the commander &amp; personnel on training responsibilities for career progression 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1D7XX</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assesses student performance/proctors maintenance E-tests; provides counseling, corrective actions; enforces tng stds 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1D7XX</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Develops, reviews, updates formal SQ trng curriculum; prepares Apprentices to execute DCO ISO $6B space C2 ntwrk 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1D7XX</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Executes detection/mitigation of adversary TTPs; provides 24/7 defense f/ threats/incidents on 185+ USSF msn sys</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1D7XX</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>complishments</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1D7XX</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Analyzed xx detection network; executed 30 TTs/searched for IOCs--bolstered security f/$26.2B msl def network
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1D7XX</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anchored IRON FALCON ex bed-down C2 ops; installed 12 computers--assured bilateral trn'g f/5 coalition parterners
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1D7XX</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assisted AJAB ntwk expansion; installed 13 switches/45 phones/pulled 10K' cable--enhanced $72M ntwk
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1D7XX</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Audited $12M cyber wpn sys; exposed 15 deficiencies w/CVA/H version update--revamped PMO delivery for 3 CPTs</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1D7XX</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conscientious NCO;designed 4 Standard Operating Procedures for CFP--increased security compliance of workcenter
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1N0X1</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coordinates world-wide enemy orders-of-battles, in-depth studies, &amp; intel articles ISO geographically dispersed units 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1N0X1</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delivers timely all-source analysis for intel products used to plan, coordinate, command, &amp; control ground operations
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1N0X1</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Intel Focal Point! Keeps operators mission focused &amp; globally aware with weekly current intel briefs &amp; newsletter</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1N0X1</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delivers adversary threat briefs to squadron; ensures unit personnel are knowledgeable on threat system information 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1N0X1</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monitors/presents global intelligence developments/potential threats to air ops; heightens global awareness of unit 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1N0X1</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Researches, analyzes, develops, &amp; presents current, all-source intelligence to AD mission crews &amp; sqdn leadership</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1N0X1</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>complishments</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1N0X1</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1st Intel to attend JUMPS training; creat'd quick guide focus'd on Intel relat'd tasks--accelerated shop learning by 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1N0X1</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Accurately prepared air defense war fighters on time-sensitive intelligence regarding LRA activity in the PAC AOR
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1N0X1</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Advised JFHQ-DODIN J2 and GO/FO ldrship on intelligence staffing, training, &amp; resource to spt fulfilling cmd PIRs 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1N1X1</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uses technical expertise to create targeting solutions w/ appropriate models required to effect adversary weapons sys 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1N1X1</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prepares weaponeering data sheets detailing structural damage and weapons effects; disseminates to the customer 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1N1X1</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exploits and analyzes multi-sensor imagery to determine type, function and location of military facilities and equip 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1N1X1</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Identifies critical nodes within adversary complex weapons systems exploiting weaknesses as target opportunities</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1N1X1</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>complishments</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1N1X1</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acquired extensive SOCET GXP training; gaining indepth skills--techniques tailored to coalition/TF operators
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1N1X1</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assisted Trng shop w/creation of geospatial trng rqmts; authored twelve prods--first wg specialized trng prgm
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1N1X1</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attended NGA Google Earth training course; gained valuable sys knowledge--trained 12 crewmembers on sys
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1N1X1</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Augmented OEF high altitude ops; created 30 products--vital actionable intel disseminated to Coalition Forces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1N1X1</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Authored 585 chat reports &amp; 213 annotated images; passed perishable data--provided concise SA in AOR
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1N2X1</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Analyzes weapons systems threat intel supporting Combat Air Forces w/electronic warfare re-programming data sets</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1N2X1</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Appointed NCOIC of Operations Scheduling; manages 3 people responsible to coordinate/distribute mission schedule</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1N2X1</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Appointed NCOIC of Operations Training; manages 3 people &amp; 4 training programs; maintains inspection readiness</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1N2X1</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Directs 14 mbrs as Flight Chief; organizes, trains, &amp; equips amn in executing cryptologic ops versus regional targets</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1N2X1</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Drives collection &amp; exploitation of adversary signals; satisfies tactical AF &amp; nat'l rqmts in coord w/IC &amp; partner orgs</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1N2X1</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Intelligence, Surveillance and Reconnaissance operator SME; develops and delivers AFSC training to 7 person team</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1N2X1</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Operates Distributed Common Ground System supporting intelligence, surveillance, &amp; reconnaissance acft platforms</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1N2X1</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Performs initial analysis of ambiguous or unidentified electromagnetic transmissions and validates signal parameters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1N2X1</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1N2X1</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Provides near-real-time tactical threat reporting &amp; situational awareness to local, theater, &amp; national-level authorities</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1N3X1</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCOIC of mission planning cell in deployed location; authors/briefs strategic lvl intel products to CFACC/Sq ldrshp 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1N3X1</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Creates pre &amp; post msn products f/aircrew, spurs persistent real-time ISR to coalition forces/enables asset protection 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1N3X1</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facilitates inter-agency collaboration across 6 teams enhancing target network exploitation and intelligence collection 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1N3X1</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Develops and targets hi-pri networks, fulfills DOD priority-1 needs -- enables HVT illicit material/bulk cash seizures</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1N3X1</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Briefs div ldrshp on emerging &amp; new technologies, rqmts &amp; procedures to help enhance msn productivity &amp; efficiency 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1N3X1</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Analyzes, evaluates &amp; correlates highly specialized comms &amp; ntwks w/in the Advanced Analytics tm spting IC rqmts 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1N3X1</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tgts, collects &amp; processes critical intel; satisfies priority-1 intel needs, enables HVT arrests &amp; illicit materials seizures 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1N3X1</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Evaluates multi-source material &amp; rpts to determine disposition &amp; location of tgts; rpts products to msns aross the IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1N3X1</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tm ldr for 8 jt-mil/civ mbrs; mngs daily productivity; oversees accountability/provides leadership with msn updates  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1N3X1</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conducts research &amp; analysis against tgt digital communications ntwks to enhance foreign intel collection capabilities 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1N4X1</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serves as Event Detection Operator for 24/7 NSA Cybersecurity Threat Operations Center Counter Operations team 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1N4X1</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Discovers, analyzes &amp; conducts detection of malicious activity to defeat highly advanced cyber threats to the DODIN 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1N4X1</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instructs initial qualifying training for operators in Computer Network Operations in support of nat'l-level initiatives 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1N4X1</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Provides technical expertise to Sr Analysts &amp; Reporters to identify threat activities against US Critical Infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1N4X1</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Provides technical analysis/guidance/rptg to NCTOC leadership, focuses DoD computer ntwk def planning &amp; rqmts 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1N4X1</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Validates/reviews emerging technologies, key mitigation flows &amp; NSA policy directives as watch-floor SME/trainer 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1N4X1</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Develops &amp; produces knowledge of foreign cyber threats, improves the defensive posture of DoDIN/IC partner ntwks 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1N4X1</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Performs quality checks on intelligence products/rptg for counter pursuit operators in support of nat'l-level initiatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1N4X1</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liaises w/deployed foreign language analysts, serves as the front facing representative f/language support capabilities 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1N4X1</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Authors, coordinates, and reviews rptg f/tactical deployed msn supplying Operation Freedom's Sentinel w/vital intel 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1N4X2</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leads 4-mbr rptg crew/3 positions; disseminates critical intel/provides threat warning to ISR acft/allied assets in AOR 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1N4X2</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spts U-2/RQ-4 airborne ISR wpn sys; assigns time-sensitive tasking/rpts strategic/tactical intel to USINDOPACOM 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1N4X2</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Optimizes $350M wpn sys utilization; accepts local tasking w/nat'l ad hoc rqmnts to max ops msn mgmt f/USFK sites 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1N4X2</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Handles release of time-sensitive rpts; balances nat'l reqs/crit intel data provides threat warning and tactical collection</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1N4X2</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supports AF &amp; Joint ISR operations by collating, analyzing, evaluating &amp; disseminating signals intel information
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1N4X2</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Analyzes, studies, researches, fuses, and correlates intelligence for strategic, operational, and tactical customers
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1N4X2</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enables all-source intelligence, situation estimates, order of battle studies, and other intelligence reports &amp; studies
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1N4X2</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Advises commanders on OPSEC, Force Protection and random counter intelligence efforts for US and allied forces</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1N4X2</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prioritizes information obtained from intel collection and provides serialized intel reports to authorized recipients
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1N4X2</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Identifies, correlates, and fuses technical, geographical, and operational intelligence information based on mission
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1N5X1</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Provided vital updates to national databases; processed over 100,000 ambiguous non-communications signals
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1N5X1</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1N5X1</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supervised multi-AFSC team through eight OEF ops; denied 1200+ terrorists safe haven/freedom of movement
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1N5X1</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oversaw high-value insurgent activity msn; analysis prompted two Hellfire missile strikes killing eight insurgents!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1N5X1</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Successfully aided in locating 525 terrorists during 70 OEF/OIF U-2 missions--lauded by JTF 76 Commander
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1N5X1</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lead ELINT training manager on 22 U-2 missions, 1.1K emitters; qualified four new Signals Analysts
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1N5X1</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flawlessly identified over 4,000 enemy emitters--ensured safety of coalition aircrews to operate during msns
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1N5X1</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Meticulously mngd theater air assets/personnel movements during 11 conting's/10 exercises; SOF spt ensured
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1N5X1</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Planned historic first US/NATO NVG training event; procured $182K in critical equipment used by Croatian SOG
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1N5X1</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Expeditiously integrated intel into aircrew's SA during GWOT msns--identified 4K+ possible enemy emitters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1N7X1</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No contributions yet
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1N7X1</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1N7X1</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1N7X1</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1N7X1</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>rformance Assessment</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1N7X1</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No contributions yet
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1N7X1</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1N7X1</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No contributions yet
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1N7X1</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1N8X1</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uses technical expertise to create targeting solutions w/ appropriate models required to effect adversary weapons sys 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1N8X1</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prepares weaponeering data sheets detailing structural damage and weapons effects; disseminates to the customer 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1N8X1</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exploits and analyzes multi-sensor imagery to determine type, function and location of military facilities and equip 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1N8X1</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Identifies critical nodes within adversary complex weapons systems exploiting weaknesses as target opportunities</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1N8X1</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>rformance Assessment</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1N8X1</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Secured facility f/nat'l lvl cert; coord'd w/Nellis AFB f/bldg acq--rectified 2 yr shortfall f/ 432 wg sole TMP cert'd unit 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1N8X1</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lead instr f/tgt familiarization trng; 4 brfs given f/6 pilots/84 line items taught--aircrew mbrs prep'd f/ HHQ static strikes 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1N8X1</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Mng'd TDA flt PPM prgm; cert'd 216 aimpoints/18 JDPI graphics f/6 prsnl--maintained 100% compliance w/AFP4 stds</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1N8X1</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Secured facility f/nat'l lvl cert; coord'd w/Nellis AFB f/bldg acq--rectified 2 yr shortfall f/ 432 wg sole TMP cert'd unit 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1N8X1</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lead instr f/tgt familiarization trng; 4 brfs given f/6 pilots/84 line items taught--aircrew mbrs prep'd f/ HHQ static strikes 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1P0X1</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maintains pilot oxygen masks, helmets, anti-gravity suits, and Joint Helmet-Mounted Cueing System equipment </t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1P0X1</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conducts, tracks, &amp; updates flying equipment inspections using Flight Equipment Records Management System </t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1P0X1</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In-processes student pilots' equipment; prepares equipment for modification, inspection, repair, or replacement </t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1P0X1</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Trains individuals on tasks required for upgrade and familiarization; provides knowledge on general programs</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1P0X1</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Inspects, repairs and repacks BA-22 personnel parachutes, single/multi place life rafts, and life preserver units</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1P0X1</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Installs and maintains prepositioned aircrew life saving equipment on assigned/transient C-5 and C-17 aircraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1P0X1</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Adjusts aircrew helmets, chemical defense ensembles, aircrew/passenger oxygen masks &amp; night vision devices</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1P0X1</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Updates/maintains equipment records in Aircrew Life Support Equipment Record/Tracking System (ALERTS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1P0X1</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oversees execution of $10M trng/equip budget for ACC's 3rd largest AFE program; directly supports 3 ops/trng sqs </t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1P0X1</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Inspects and re-packs a variety of personnel/cargo parachutes to include MC-5, SOV-III, MIRPS, and MC1-1D</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1S0X1</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Implements occupational safety program for 6 AMW &amp; 33 tenant units for 30K mil/civ/dependents and 5K acre base  </t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1S0X1</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Performs mishap investigations/reports to commanders w/recommended corrections for prevention and trend analysis  </t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1S0X1</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conducts inspections, evaluations, and assessments to ensure safety/health compliance of 18K personnel/$3.3B assets  </t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1S0X1</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Conducts safety evaluations &amp; reviews lesson plans &amp; procedures for the 6 AMW Lockout/Tagout (LOTO) program</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1S0X1</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plans, organizes, &amp; directs wg SE program encompassing 4K prsnnl/67 fighter acft/21 sqdns and 6 tenant units </t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1S0X1</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Supervises 11 safety professionals including civilians/officers/enlisted personnel focusing on risk mangement</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1S0X1</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Advises CCs in developing &amp; implementing flight/weapons/ground mishap prevention pgrms for 4K+ people</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1S0X1</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Oversees all mishap investigations, unit annual &amp; spot inspections, and wing level safety education &amp; training</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1S0X1</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conducts safety inspections/assessments of base facilities and operations; prepares written evaluation reports </t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1S0X1</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consolidates mishap data, identifies trends, and recommends corrective measures to reverse any negative trends </t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1T0X1</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oversees XX AMW SERE Trng Pgm; develops curriculum/explosive ops/eqpmt acquisition/field trng site coordinator  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1T0X1</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manages SERE Resources; GPC card hldr, accounts f/$350K of eqpmt, Vehicle NCO f/2 GOVs/3 Watercraft/3 quads 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1T0X1</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Directs XX AMW ISOPREP pgm &amp; proffers Combatant Cmnd Personnel Recovery preparation f/Mobility Air Forces 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1T0X1</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Leads Combined Personnel Recovery Ctr-Afghanistan SERE Ops; manages/advises cmd PR requirements f/Coalition</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1T0X1</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supervises/instructs training for 3,600 students annually in Full Spectrum of Captivity (FSC) resistance strategy
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1T0X1</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Performs Level-B &amp; C Code of Conduct training for High-Risk of Isolation (HRI) joint &amp; combined personnel
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1T0X1</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conducts academic lessons, guided discussions/debriefs, evasion operations and FSC role-play laboratories 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1T0X1</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Instructs Isolated Personnel TTP/Combat Search and Rescue Special Instructions to HRI DoD warfighters</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1T0X1</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>RFORMANCE ASSESSMENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1T0X1</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Advis'd academia-DoD Hacking 4 Defense; mentor'd 2 innovation tms solving Gov problems--AFRL awd'd contract 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1T2X1</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>#13/185 MSgts; AETC '09 PJ SNCO OTY; SNCOA Commandant's awd; proven cmbt ldr--promote to SMSgt!</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1T2X1</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>#2/30 MSgts; led my busiest GSU, top notch performance--rdy for RQS/STS ops supt...promote to SMSgt now</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1T2X1</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Competed in &amp; won nat'l Spec-Ops shooting competition; dominated nation's best in 10 tactical events--#1/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1T2X1</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Completed AIE rope master while deployed; eight hrs/10 tasks/66% upgrade complete--caps increased by 5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1T2X1</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Completed intensive 81 hr Paramedic refresher training and critical patient care skills--ensured team war ready</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1T2X1</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Conducted 7 Guardian Angel (GA) capability briefs; trn'd 50 ISAF medics--improved patient care/team safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1T2X1</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coordinated redeployment of two UTCs; worked HazDecs/load plan--100% accountability of deployed assets  </t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1T2X1</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Coordinated/briefed FR trng w/160th SOAR; 7 days/27 iterations/24 USMC trnd--MARSOC OCO msn ready!</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1T2X1</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Delivered advanced helo insertion; researched/taught 8-man team Zodiac water ops--incrs'd flood relief capes</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1T2X1</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Devised new air ops trng plan; 60 objs divided into four iterations--tripled jumps/eliminated eight course days</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1U0X1</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Employs $17M MQ-9 Reaper a/c executing combat ops in spt of Joint, Special Ops, &amp; multi-COCOM priority msns 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1U0X1</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Operates the Multispectral Targeting System (MTS); collects EO/IR full motion video (FMV) to satisfy ISR taskings  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1U0X1</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Integrates Reaper into real world CAS, CSAR, SCAR &amp; ISR events; monitors a/c flt instruments for safety of flight 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1U0X1</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Provides terminal guidance for AGM-114 Hellfire missiles and GBU-12 bombs; utilizes onboard laser/target marker</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1U0X1</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manages weapons &amp; tactics; develops, updates, maintains, and instructs TTPs/sq stds for 217 MQ-1B sq prsnl 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1U0X1</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1U0X1</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>complishments</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1U0X1</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Accomplished 25 upg tasks; 86hrs/139 items mastr'd--comp'd 47% inst upg prereqs, 33%/4month ahead of peers/goal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1U0X1</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achieved RPAs highest qual; selected by cmdr for Eval upgrade...admin'd three evals &amp; cert'd five SOs CMR 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1U0X1</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acted as Sq pubs monitor; verified flt control info files &amp; TOs for 17 mbrs--critical flt operations maintained
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1U1X1</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enlisted force bails officer corps out again--when times r tuff and officers can't, Amn deliver--best pilot since WW2
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1U1X1</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1U1X1</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Accepted/embraced challenge despite 70-year embargo on enl pilots--proven ability and potential--open off'r club now!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1U1X1</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1U1X1</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denied ldrship opportunities for 70 years--relegated to 2nd class pos'ns; maintained pos attitude--cream rises 2 top
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1U1X1</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1U1X1</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Broke the class barrier--overlooked decades of discrim to rescue AF in time of need--demonstrated peerless competence
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1U1X1</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1U1X1</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deployed w/ 414th RPA ADVON team, decreased bed-down time f/ predator drones--enhanced relations w/ host Turkey
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1U1X1</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1W0X1</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>om the CFETP</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1W0X1</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Provides planning &amp; execution weather for assigned Army National Guard units--supports ground/aviation operations </t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1W0X1</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supplies weather to Joint Forces Headquarters in state disaster response/exercises--aids resource protection/allocation </t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1W0X1</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Collects, analyzes, interprets, integrates atmospheric/space environment data into military decision-making processes</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1W0X1</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>complishments</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1W0X1</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36 OSS premier weather technician--supported multi-platform ops--selected as OSW Performer of the Month </t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1W0X1</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Aided eight LRRS flts; crossfed C-12 flying schedules to 17 OWS--fcst info vital to radar site mission success</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1W0X1</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Analyzed 80 graphics charts; formed baseline for 4.6M sq mi AOR/44 sites--max'd employment of 700 wpn releases </t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1W0X1</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anchored JBER air show wx tm; steered daily outlook brief f/20 aerial acts--highlighted jt force capes to 325K locals </t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1W0X1</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arranged VIP wx spt/ID'd severe wx; flt averted icing hzd--enabled SECSTATE mtg w/ US-Japan ambassador </t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1Z1X1</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supports worldwide CSAR, unilateral, joint &amp; coalition force from any deployment/recovery asset in any environment </t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1Z1X1</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utilizes Parachute, Alternate Insertion/Extraction, SCUBA &amp; other tacital RW/FW infiltration/exfiltration techniques </t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1Z1X1</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Provides survivor extrication, evaluation, medical treatment, assists evasion, &amp; evacuation from hostile/civil SAR AO </t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1Z1X1</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Maintains qualifications as HH-60/ HC-130 aircrew, MFF parachutist, RQS diver, EMT National Registry Paramedic</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1Z1X1</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deploys worldwide as Pararescue team member; conducts personnel/sensitive material recovery ISO jnt/coalition ops </t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1Z1X1</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Employs into hostile/contested/non-permissive austere environments via FW/RW aircraft/tactical vehicles/watercraft </t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1Z1X1</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Locates, recovers, &amp; treats traumatically injured personnel; provides cbt survival/evasion assistance during PR events</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1Z1X1</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Provides critical air-to-ground communication link for recovery assets; facilitates evacuation of injured/isolated prsnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1Z1X1</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>rformance Assessment</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1Z1X1</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aggressively pursued 7-lvl UGT; completed multiple line items despite unit's high tempo--progressing ahead of peers </t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1Z2X1</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inputs Received.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1Z3X1</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 SOW Obstacle Crse PM; facilitated tech trng for 100+ stdnts/spec ops/law enforcement--zero safety mishaps </t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1Z3X1</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acted as radio op; swift actions resulted in return of 5 civilian lives and twenty five medevac missions </t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1Z3X1</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AF Basic Combatives Instructor; eased shortage of qualed instrs--helped avoid student training deficiencies </t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1Z3X1</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahead of his peers in seven level upgrade training: 60% of prerequisites complete--role model to counterparts </t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1Z3X1</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aided in DIV EX Iron Focus 16.2; provided ASOC w/comm/link caps for CAS ops--8 sorties supt'd/3 JTACs trained </t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1Z3X1</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alert! During VIP live bombing exercise, declared immediate ceasefire, saved 11 personnel in impact area </t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1Z3X1</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambassador in Blue; collected 85 bags/1 ton debris during squadron Adopt-a-Highway event--beautified community </t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1Z3X1</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arranged collection/transportation of $12K of unit turn-in items to base management; essential to unit closure  </t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1Z3X1</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Assisted 10+ JTACs w/five training TDYs; aided control of 50+ hrs of CAS--maintained 25 annual currencies</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1Z3X1</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Assisted Flight's equipment inventory appraised at $2.9 mil-- 20 Airmen equipped for OEF deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>1XXXX</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1Z4X1</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inputs Received Yet.</t>
         </is>
       </c>
     </row>
